--- a/FootballTaggingProject_CurrentWorkflow.xlsx
+++ b/FootballTaggingProject_CurrentWorkflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yingy\Desktop\FootballTaggingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0972063-F156-4764-994C-00481206CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C8CD1-207F-4893-9A37-1A00CDDDD6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="3255" windowWidth="20820" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>Event_Type</t>
   </si>
@@ -160,6 +160,138 @@
   </si>
   <si>
     <t>{Pass_Completed, Pass_Failed, Pass_Intercepted, Shot_Blocked, Shot_Saved, Shot_offTarget, Shot_Corner, Shot_Score, Dribble_Failed, Dribble_Completed, Dribble_Lost, Foul}</t>
+  </si>
+  <si>
+    <t>H_1 - H_100</t>
+  </si>
+  <si>
+    <t>47:00</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>Dribble</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Throw</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>Pass_Completed</t>
+  </si>
+  <si>
+    <t>Pass_Failed</t>
+  </si>
+  <si>
+    <t>Pass_Intercepted</t>
+  </si>
+  <si>
+    <t>Shot_Blocked</t>
+  </si>
+  <si>
+    <t>Shot_Saved</t>
+  </si>
+  <si>
+    <t>Shot_offTarget</t>
+  </si>
+  <si>
+    <t>Shot_Corner</t>
+  </si>
+  <si>
+    <t>Shot_Score</t>
+  </si>
+  <si>
+    <t>Dribble_Failed</t>
+  </si>
+  <si>
+    <t>Dribble_Completed</t>
+  </si>
+  <si>
+    <t>Dribble_Lost</t>
+  </si>
+  <si>
+    <t>Foul</t>
+  </si>
+  <si>
+    <t>34:54</t>
+  </si>
+  <si>
+    <t>H_3</t>
+  </si>
+  <si>
+    <t>35:01</t>
+  </si>
+  <si>
+    <t>47:07</t>
+  </si>
+  <si>
+    <t>47:09</t>
+  </si>
+  <si>
+    <t>35:03</t>
+  </si>
+  <si>
+    <t>47:11</t>
+  </si>
+  <si>
+    <t>35:05</t>
+  </si>
+  <si>
+    <t>H_11</t>
+  </si>
+  <si>
+    <t>(30,65)</t>
+  </si>
+  <si>
+    <t>(32.5,60)</t>
+  </si>
+  <si>
+    <t>(32.5,65)</t>
+  </si>
+  <si>
+    <t>(52.5,60)</t>
+  </si>
+  <si>
+    <t>H_13</t>
+  </si>
+  <si>
+    <t>(52.5,55)</t>
+  </si>
+  <si>
+    <t>35:06</t>
+  </si>
+  <si>
+    <t>47:12</t>
+  </si>
+  <si>
+    <t>A_</t>
+  </si>
+  <si>
+    <t>(55,52.5)</t>
+  </si>
+  <si>
+    <t>https://www.footballcritic.com/wc-qualification-saudi-arabia-china-pr/lineups/2397437</t>
   </si>
 </sst>
 </file>
@@ -387,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -408,6 +540,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,8 +551,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="45" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,36 +834,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="2"/>
     <col min="7" max="9" width="11.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -756,17 +891,421 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69389B4C-A405-4A91-BAC5-93CABD07F663}">
+          <x14:formula1>
+            <xm:f>'Meta Data'!$F$8:$M$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A55D469A-382B-4177-832A-9DAE029DCABB}">
+          <x14:formula1>
+            <xm:f>'Meta Data'!$F$13:$Q$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE8A7E-74D2-4E50-8D0C-C7B7F22ED1C4}">
-  <dimension ref="B1:AA18"/>
+  <dimension ref="B1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P18" sqref="F18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,80 +1314,45 @@
     <col min="6" max="26" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <v>5</v>
-      </c>
-      <c r="V4">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4">
-        <v>5</v>
-      </c>
-      <c r="Y4">
-        <v>5</v>
-      </c>
-      <c r="Z4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>5</v>
       </c>
@@ -874,7 +1378,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>5</v>
       </c>
@@ -900,7 +1404,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>5</v>
       </c>
@@ -926,7 +1430,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>5</v>
       </c>
@@ -952,7 +1456,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>5</v>
       </c>
@@ -978,7 +1482,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>5</v>
       </c>
@@ -1004,7 +1508,10 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
       <c r="E11">
         <v>5</v>
       </c>
@@ -1031,8 +1538,11 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="15"/>
-    </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>5</v>
       </c>
@@ -1058,7 +1568,7 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>5</v>
       </c>
@@ -1084,7 +1594,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>5</v>
       </c>
@@ -1110,7 +1620,7 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>5</v>
       </c>
@@ -1136,7 +1646,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>5</v>
       </c>
@@ -1162,7 +1672,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="5:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>5</v>
       </c>
@@ -1188,43 +1698,79 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="1" t="s">
-        <v>12</v>
+    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T4:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1232,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52140B8D-E35C-4244-8FF8-214A554BF10D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1791,7 @@
     <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1262,63 +1808,63 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1328,11 +1874,11 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1342,92 +1888,152 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>30</v>
+      <c r="C9" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>30</v>
+      <c r="C10" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334A2AF6-384B-4848-A59C-1EB1312C22BD}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,6 +2086,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
